--- a/documentation/LagIncreaseOc.xlsx
+++ b/documentation/LagIncreaseOc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D41740-65ED-BA46-BD68-2BEC6BF88B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B07D7F-7DE4-4E4B-AC53-7A68B89A2DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="2" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D20"/>
+      <selection activeCell="B1" sqref="B1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF85802-C064-7E4C-90D3-E414AAA07F75}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
     </sheetView>
   </sheetViews>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62DC63-EE63-3644-B9B2-2B7B29156C0B}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
     </sheetView>
   </sheetViews>
@@ -931,7 +931,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D20"/>
+      <selection activeCell="B1" sqref="B1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documentation/LagIncreaseOc.xlsx
+++ b/documentation/LagIncreaseOc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B07D7F-7DE4-4E4B-AC53-7A68B89A2DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E1D182-5738-9A49-BE3B-EB466D7313B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="2" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF85802-C064-7E4C-90D3-E414AAA07F75}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
     </sheetView>
   </sheetViews>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62DC63-EE63-3644-B9B2-2B7B29156C0B}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreaseOc.xlsx
+++ b/documentation/LagIncreaseOc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDBFB40-E678-F14F-BA83-C14E30E8D801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E12D85F-E26C-284B-B10A-A1AF13664A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="2" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF85802-C064-7E4C-90D3-E414AAA07F75}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62DC63-EE63-3644-B9B2-2B7B29156C0B}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreaseOc.xlsx
+++ b/documentation/LagIncreaseOc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E12D85F-E26C-284B-B10A-A1AF13664A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59CF1FB-A994-0448-8DF3-F8EED7FD4775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="2" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF85802-C064-7E4C-90D3-E414AAA07F75}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62DC63-EE63-3644-B9B2-2B7B29156C0B}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
     </sheetView>
   </sheetViews>

--- a/documentation/LagIncreaseOc.xlsx
+++ b/documentation/LagIncreaseOc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -111,6 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -456,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DA2B74-2347-0347-86D2-F6AB4B814569}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
@@ -464,107 +465,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>123.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>58.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>51.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>38.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF85802-C064-7E4C-90D3-E414AAA07F75}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
@@ -582,107 +1183,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>585.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>756.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>991.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>887.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>932.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>430.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>370.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>500.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>692.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>39.0</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +1893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72334DA6-81EA-704C-A917-9AB8D3530A6B}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
@@ -700,107 +1901,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>165.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +2611,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62DC63-EE63-3644-B9B2-2B7B29156C0B}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
@@ -818,107 +2619,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>52.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>196.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>117.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>39.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +3329,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6036B0-A6B2-054C-A0FA-BFF38CD97704}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
@@ -936,107 +3337,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>229.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>356.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>142.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>69.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +4047,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F18A12-24DF-454F-85C6-4E74DCED35F2}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
@@ -1054,107 +4055,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="29.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>283.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>226.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>249.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>279.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>253.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>510.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +4765,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6F96E0-F5BB-854C-A442-6ABC39B5D109}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K21"/>
@@ -1172,107 +4773,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="36.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>219.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>209.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>324.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>445.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>309.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>207.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>284.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>49.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>41.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7627A29-C404-8444-9DA4-15D922FC4074}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
@@ -1290,107 +5491,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>48.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>635.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>359.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>467.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>249.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>554.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>242.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>636.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>308.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>44.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>580.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>349.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>439.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +6201,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DB4E3A-26CA-0644-A279-A4FF32DC80B8}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
@@ -1408,107 +6209,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>540.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>371.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1039.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>704.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>602.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>512.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>524.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>415.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>366.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>61.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +6919,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19D7DDA-A10A-C24D-BA4B-3DFB642FB3B0}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K20"/>
@@ -1526,107 +6927,707 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B2" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B4" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B5" t="n" s="0">
+        <v>513.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>617.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>457.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>338.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>329.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>825.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>665.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>678.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>752.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>532.0</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B6" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="B8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="B9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="B10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="B11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="B14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="B15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
+      <c r="B16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="B17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>36.0</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="B19" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
